--- a/02-Avancado1-Funcoes/10-ProfessorRespondidas/Aula-03-ExcelAvancado1-Revisao-RegraDeSinaisMatematicos.xlsx
+++ b/02-Avancado1-Funcoes/10-ProfessorRespondidas/Aula-03-ExcelAvancado1-Revisao-RegraDeSinaisMatematicos.xlsx
@@ -1,41 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B55A2FA-0C2F-4280-ADF7-597681A80267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="Regra de Sinais" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Robson Vaamonde
+LinkedIn: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://www.linkedin.com/in/robson-vaamonde-0b029028/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Instagram: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://www.instagram.com/procedimentoem/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+YouTUBE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://www.youtube.com/boraparapratica</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">CUIDADO!!!! </t>
     </r>
     <r>
@@ -64,80 +117,43 @@
     <t>=+10++10</t>
   </si>
   <si>
+    <t>=10+10 - observe que foi retirado o símbolo de + do primeiro valor e do segundo</t>
+  </si>
+  <si>
     <t>=+10+-10</t>
   </si>
   <si>
+    <t>=10+-10 - observe que foi retirado somente o símbolo de + do primeiro valor</t>
+  </si>
+  <si>
     <t>=+10--10</t>
   </si>
   <si>
+    <t>=10--10 - observer que foi retirado o símbolo de + do primeiro valor e aplicado a regra no segundo</t>
+  </si>
+  <si>
     <t>=-+10++10</t>
   </si>
   <si>
+    <t>=-10+10 - observer que foi retirado o símbolo de + do primeiro valor e preservado no segundo</t>
+  </si>
+  <si>
     <t>=-+10-+10</t>
   </si>
   <si>
+    <t>=-10-10 - observer que foi retirado o símbolo de + do primeiro valor e do segundo</t>
+  </si>
+  <si>
     <t>=-+10--10</t>
   </si>
   <si>
+    <t>=-10--10 - observer que foi retirado o símbolo de + do primeiro valor e aplicado a regra no segundo</t>
+  </si>
+  <si>
     <t>=++10--10</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Robson Vaamonde
-LinkedIn: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.linkedin.com/in/robson-vaamonde-0b029028/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="63"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Instagram: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.instagram.com/procedimentoem/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="63"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-YouTUBE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.youtube.com/boraparapratica</t>
-    </r>
+    <t>=10--10 - observer que foi aplicado a regra no primeiro valor e no segundo</t>
   </si>
   <si>
     <t>A ordem em que o Excel efetua operações em fórmulas</t>
@@ -146,23 +162,29 @@
     <t>https://support.microsoft.com/pt-br/office/a-ordem-em-que-o-excel-efetua-opera%C3%A7%C3%B5es-em-f%C3%B3rmulas-28eaf0d7-7058-4eff-a8ea-0a835fafadb8</t>
   </si>
   <si>
+    <t>Operadores de cálculo e precedência no Excel</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/pt-br/office/operadores-de-c%C3%A1lculo-e-preced%C3%AAncia-no-excel-48be406d-4975-4d31-b2b8-7af9e0e2878a</t>
+  </si>
+  <si>
     <t>Operadores de cálculo e precedência</t>
   </si>
   <si>
     <t>https://support.microsoft.com/pt-br/office/operadores-de-c%C3%A1lculo-e-preced%C3%AAncia-36de9366-46fe-43a3-bfa8-cf6d8068eacc</t>
-  </si>
-  <si>
-    <t>Operadores de cálculo e precedência no Excel</t>
-  </si>
-  <si>
-    <t>https://support.microsoft.com/pt-br/office/operadores-de-c%C3%A1lculo-e-preced%C3%AAncia-no-excel-48be406d-4975-4d31-b2b8-7af9e0e2878a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color indexed="63"/>
@@ -170,46 +192,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -220,20 +209,32 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="63"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -241,17 +242,175 @@
       <sz val="10.5"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,8 +429,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -294,75 +639,357 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Ênfase 6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Ênfase 6" xfId="2" builtinId="51"/>
+    <cellStyle name="20% - Ênfase 6" xfId="3" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 5" xfId="4" builtinId="47"/>
+    <cellStyle name="Ênfase 5" xfId="5" builtinId="45"/>
+    <cellStyle name="Ênfase 4" xfId="6" builtinId="41"/>
+    <cellStyle name="Título 4" xfId="7" builtinId="19"/>
+    <cellStyle name="60% - Ênfase 3" xfId="8" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 3" xfId="9" builtinId="38"/>
+    <cellStyle name="Ênfase 3" xfId="10" builtinId="37"/>
+    <cellStyle name="Título 3" xfId="11" builtinId="18"/>
+    <cellStyle name="60% - Ênfase 2" xfId="12" builtinId="36"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23"/>
+    <cellStyle name="40% - Ênfase 2" xfId="14" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 5" xfId="15" builtinId="48"/>
+    <cellStyle name="Ênfase 2" xfId="16" builtinId="33"/>
+    <cellStyle name="Ênfase 6" xfId="17" builtinId="49"/>
+    <cellStyle name="40% - Ênfase 1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Ênfase 1" xfId="19" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 4" xfId="20" builtinId="44"/>
+    <cellStyle name="Ênfase 1" xfId="21" builtinId="29"/>
+    <cellStyle name="40% - Ênfase 4" xfId="22" builtinId="43"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Ênfase 4" xfId="24" builtinId="42"/>
+    <cellStyle name="Saída" xfId="25" builtinId="21"/>
+    <cellStyle name="Hyperlink seguido" xfId="26" builtinId="9"/>
+    <cellStyle name="Moeda [0]" xfId="27" builtinId="7"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bom" xfId="29" builtinId="26"/>
+    <cellStyle name="40% - Ênfase 3" xfId="30" builtinId="39"/>
+    <cellStyle name="Texto de Aviso" xfId="31" builtinId="11"/>
+    <cellStyle name="Cálculo" xfId="32" builtinId="22"/>
+    <cellStyle name="Entrada" xfId="33" builtinId="20"/>
+    <cellStyle name="Texto Explicativo" xfId="34" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Título" xfId="36" builtinId="15"/>
+    <cellStyle name="Observação" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - Ênfase 2" xfId="38" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 1" xfId="39" builtinId="32"/>
+    <cellStyle name="Título 2" xfId="40" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8"/>
+    <cellStyle name="Célula Vinculada" xfId="42" builtinId="24"/>
+    <cellStyle name="Comma" xfId="43" builtinId="3"/>
+    <cellStyle name="Porcentagem" xfId="44" builtinId="5"/>
+    <cellStyle name="Neutro" xfId="45" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="46" builtinId="46"/>
+    <cellStyle name="Moeda" xfId="47" builtinId="4"/>
+    <cellStyle name="Comma [0]" xfId="48" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -378,19 +1005,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1AB2D63-8D55-4353-89DD-B4A711AC6FF4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Imagem 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -403,8 +1024,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="634448" y="183933"/>
-          <a:ext cx="918540" cy="896789"/>
+          <a:off x="721360" y="183515"/>
+          <a:ext cx="918210" cy="858520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -422,25 +1043,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>320604</xdr:colOff>
+      <xdr:colOff>94544</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>137747</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBAFB55A-99AC-46B5-A371-A759013C27EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Imagem 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -453,8 +1068,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5823267" y="196585"/>
-          <a:ext cx="1641087" cy="884137"/>
+          <a:off x="6488430" y="196215"/>
+          <a:ext cx="1972310" cy="845820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -473,24 +1088,18 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>183556</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>183332</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88082</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F8E967-71BB-4DD9-807E-5971B6991005}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Imagem 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -503,8 +1112,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7121770" y="0"/>
-          <a:ext cx="4433171" cy="4662631"/>
+          <a:off x="8373745" y="0"/>
+          <a:ext cx="5052695" cy="4650105"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -839,270 +1448,306 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
-    <col min="8" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="9.14166666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.2833333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.425" customWidth="1"/>
+    <col min="4" max="4" width="9.14166666666667" customWidth="1"/>
+    <col min="5" max="5" width="12.425" customWidth="1"/>
+    <col min="6" max="6" width="12.5666666666667" customWidth="1"/>
+    <col min="7" max="7" width="16.5666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.14166666666667" customWidth="1"/>
+    <col min="9" max="9" width="12.1083333333333" customWidth="1"/>
+    <col min="10" max="17" width="9.14166666666667" customWidth="1"/>
+    <col min="18" max="16384" width="9.14166666666667" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="14.25">
-      <c r="A1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="14.25">
-      <c r="B2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="14.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="14.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="14.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="14.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="14.25"/>
-    <row r="8" spans="1:9">
-      <c r="B8" s="13" t="s">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:1">
+      <c r="A1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="2:9">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="2:9">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="2:9">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.25" spans="2:9">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="14.25" spans="2:9">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="14.25"/>
+    <row r="8" ht="14.25" spans="2:9">
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:9">
       <c r="B9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8">
         <f>10+10</f>
         <v>20</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="4" t="s">
+      <c r="D11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8">
+        <f>10+-10</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8">
         <f>10--10</f>
         <v>20</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="D13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8">
+        <f>-10+10</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8">
+        <f>-10-10</f>
+        <v>-20</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="8">
+        <f>-10--10</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" spans="2:9"/>
-    <row r="19" spans="2:9" ht="21">
+      <c r="B17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="8">
+        <f>10--10</f>
+        <v>20</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18"/>
+    <row r="19" ht="19.5" spans="2:2">
       <c r="B19" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9"/>
-    <row r="22" spans="2:9" ht="21">
-      <c r="B22" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9"/>
-    <row r="25" spans="2:9" ht="21">
-      <c r="B25" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="2:2">
+      <c r="B20" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25"/>
+    <row r="22" ht="19.5" spans="2:2">
+      <c r="B22" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="2:2">
+      <c r="B23" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25"/>
+    <row r="25" ht="19.5" spans="2:2">
+      <c r="B25" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="2:2">
+      <c r="B26" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25"/>
+    <row r="28" ht="14.25" hidden="1"/>
+    <row r="29" ht="14.25" hidden="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="D16:I16"/>
     <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D12:I12"/>
     <mergeCell ref="B2:I6"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D13:I13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" xr:uid="{BBCB514D-C489-4566-87B5-939D53616147}"/>
-    <hyperlink ref="B26" r:id="rId2" xr:uid="{1E81CC22-90D5-485D-A1F6-85571C07C65B}"/>
-    <hyperlink ref="B23" r:id="rId3" xr:uid="{C89FFF40-A2D2-4485-B4A3-7BC9CAAD8662}"/>
+    <hyperlink ref="B20" r:id="rId2" display="https://support.microsoft.com/pt-br/office/a-ordem-em-que-o-excel-efetua-opera%C3%A7%C3%B5es-em-f%C3%B3rmulas-28eaf0d7-7058-4eff-a8ea-0a835fafadb8"/>
+    <hyperlink ref="B26" r:id="rId3" display="https://support.microsoft.com/pt-br/office/operadores-de-c%C3%A1lculo-e-preced%C3%AAncia-36de9366-46fe-43a3-bfa8-cf6d8068eacc"/>
+    <hyperlink ref="B23" r:id="rId4" display="https://support.microsoft.com/pt-br/office/operadores-de-c%C3%A1lculo-e-preced%C3%AAncia-no-excel-48be406d-4975-4d31-b2b8-7af9e0e2878a"/>
   </hyperlinks>
-  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>